--- a/Excel/buff.状态效果.xlsx
+++ b/Excel/buff.状态效果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1314D0AB-4318-4D99-96E2-7C4CF6EC9BB6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC21FD6C-CE5E-41BF-8103-895F9843F9CE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
   <si>
     <t>sheet名</t>
   </si>
@@ -82,10 +82,6 @@
   </si>
   <si>
     <t>dua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -250,6 +246,118 @@
   </si>
   <si>
     <t>bool:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速提升100%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>伤害提升5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0%</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主舰7突-放大招</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹8突-暴击后</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>暴击率提升2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>导弹1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1突-放大招</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光8突-暴击后</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>激光1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1突-放大招</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害提升50%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>格挡率提升2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -805,20 +913,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -826,20 +934,20 @@
     </row>
     <row r="3" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -857,32 +965,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAFF09F-591C-41DC-A711-53F6351E712C}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="12" width="10.875" customWidth="1"/>
-    <col min="13" max="13" width="13.25" customWidth="1"/>
-    <col min="14" max="14" width="14.375" customWidth="1"/>
-    <col min="15" max="15" width="10.625" customWidth="1"/>
-    <col min="16" max="16" width="10.75" customWidth="1"/>
-    <col min="17" max="17" width="12.875" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="12.125" customWidth="1"/>
-    <col min="20" max="20" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="33.625" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="8" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="13" width="10.875" customWidth="1"/>
+    <col min="14" max="14" width="13.25" customWidth="1"/>
+    <col min="15" max="15" width="14.375" customWidth="1"/>
+    <col min="16" max="16" width="10.625" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
+    <col min="18" max="18" width="12.875" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="12.125" customWidth="1"/>
+    <col min="21" max="21" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -893,46 +1003,49 @@
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -943,46 +1056,49 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -993,46 +1109,49 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>39</v>
+      <c r="Q3" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1040,13 +1159,13 @@
         <v>101</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1055,12 +1174,13 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3" t="b">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1068,31 +1188,32 @@
         <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>15000</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="3">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>3500</v>
       </c>
-      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1100,31 +1221,177 @@
         <v>103</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
-        <v>3000</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
         <v>20</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>2500</v>
       </c>
-      <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>201</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>202</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>203</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>204</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>205</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/buff.状态效果.xlsx
+++ b/Excel/buff.状态效果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC21FD6C-CE5E-41BF-8103-895F9843F9CE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7076A1-9AF8-4F71-9AE7-70A6FA46EFEB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>sheet名</t>
   </si>
@@ -358,6 +358,34 @@
   </si>
   <si>
     <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkSpeed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dmgInc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>critRat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>blockRat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌3秒</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力提升35%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>易伤提升25%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -968,7 +996,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1053,10 +1081,10 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -1161,7 +1189,9 @@
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
         <v>3</v>
@@ -1190,7 +1220,9 @@
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>15</v>
@@ -1223,7 +1255,9 @@
       <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
         <v>3</v>
@@ -1266,9 +1300,15 @@
         <v>7</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="H7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>10000</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1295,9 +1335,15 @@
         <v>5</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="H8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5000</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1324,9 +1370,15 @@
         <v>7</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="H9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2500</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1353,9 +1405,15 @@
         <v>5</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="H10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5000</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1382,9 +1440,15 @@
         <v>7</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="H11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2500</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1396,5 +1460,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/buff.状态效果.xlsx
+++ b/Excel/buff.状态效果.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7076A1-9AF8-4F71-9AE7-70A6FA46EFEB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D4D4CF-0A35-4C1E-BEC7-D4DA1B299939}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,70 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{FD878BA2-FEE9-4298-8777-E2A0D6C9B3D1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+同BUFFID的buff替换或叠加刷新时间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{1B5C6885-7F1D-4F35-BE6F-1B52FB394822}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0是基础值
+1~4是各槽位
+最终值=基础值*槽1值*槽2值*槽3值*槽4值</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
@@ -393,7 +457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +539,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -992,11 +1071,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAFF09F-591C-41DC-A711-53F6351E712C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAFF09F-591C-41DC-A711-53F6351E712C}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1232,7 +1311,7 @@
         <v>43</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" s="3">
         <v>3500</v>
@@ -1304,7 +1383,7 @@
         <v>67</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" s="3">
         <v>10000</v>
@@ -1339,7 +1418,7 @@
         <v>68</v>
       </c>
       <c r="I8" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <v>5000</v>
@@ -1409,7 +1488,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>5000</v>
@@ -1461,5 +1540,6 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/buff.状态效果.xlsx
+++ b/Excel/buff.状态效果.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D4D4CF-0A35-4C1E-BEC7-D4DA1B299939}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7076A1-9AF8-4F71-9AE7-70A6FA46EFEB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,70 +20,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{FD878BA2-FEE9-4298-8777-E2A0D6C9B3D1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-同BUFFID的buff替换或叠加刷新时间</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{1B5C6885-7F1D-4F35-BE6F-1B52FB394822}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-0是基础值
-1~4是各槽位
-最终值=基础值*槽1值*槽2值*槽3值*槽4值</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
@@ -457,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,21 +475,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1071,11 +992,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAFF09F-591C-41DC-A711-53F6351E712C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAFF09F-591C-41DC-A711-53F6351E712C}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1311,7 +1232,7 @@
         <v>43</v>
       </c>
       <c r="I5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3">
         <v>3500</v>
@@ -1383,7 +1304,7 @@
         <v>67</v>
       </c>
       <c r="I7" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7" s="3">
         <v>10000</v>
@@ -1418,7 +1339,7 @@
         <v>68</v>
       </c>
       <c r="I8" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8" s="3">
         <v>5000</v>
@@ -1488,7 +1409,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3">
         <v>5000</v>
@@ -1540,6 +1461,5 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/buff.状态效果.xlsx
+++ b/Excel/buff.状态效果.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7076A1-9AF8-4F71-9AE7-70A6FA46EFEB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9DF678-4C4C-4BEB-843C-3C633BEBBE04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
   <si>
     <t>sheet名</t>
   </si>
@@ -125,14 +125,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>attr[1].val.w</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[1].val.v</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -142,14 +134,6 @@
   </si>
   <si>
     <t>attr[2].id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[2].val.w</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr[2].val.v</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -386,6 +370,46 @@
   </si>
   <si>
     <t>易伤提升25%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速增加</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力提升1000%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].tar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].tar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性2目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性1目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].valv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[1].valw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].valw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr[2].valv</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -941,20 +965,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -962,20 +986,20 @@
     </row>
     <row r="3" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -993,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAFF09F-591C-41DC-A711-53F6351E712C}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1006,21 +1030,21 @@
     <col min="5" max="5" width="17.625" customWidth="1"/>
     <col min="6" max="6" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="9" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="13" width="10.875" customWidth="1"/>
-    <col min="14" max="14" width="13.25" customWidth="1"/>
-    <col min="15" max="15" width="14.375" customWidth="1"/>
-    <col min="16" max="16" width="10.625" customWidth="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1"/>
-    <col min="18" max="18" width="12.875" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="12.125" customWidth="1"/>
-    <col min="21" max="21" width="15.5" customWidth="1"/>
+    <col min="8" max="10" width="11.875" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="13" max="15" width="10.875" customWidth="1"/>
+    <col min="16" max="16" width="13.25" customWidth="1"/>
+    <col min="17" max="17" width="14.375" customWidth="1"/>
+    <col min="18" max="18" width="10.625" customWidth="1"/>
+    <col min="19" max="19" width="10.75" customWidth="1"/>
+    <col min="20" max="20" width="12.875" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="12.125" customWidth="1"/>
+    <col min="23" max="23" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -1031,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>17</v>
@@ -1040,40 +1064,46 @@
         <v>15</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>37</v>
+      <c r="S1" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1090,43 +1120,49 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -1137,7 +1173,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1149,37 +1185,43 @@
         <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1190,7 +1232,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3">
@@ -1205,12 +1247,14 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3" t="b">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="Q4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1221,7 +1265,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
@@ -1229,23 +1273,29 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J5" s="3">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3">
         <v>3500</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1256,7 +1306,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
@@ -1266,196 +1316,273 @@
         <v>20</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I6" s="3">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>2500</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J7" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>100000</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I8" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J8" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I9" s="3">
+        <v>7</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J10" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I11" s="3">
+        <v>7</v>
+      </c>
+      <c r="J11" s="3">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>205</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>7</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/buff.状态效果.xlsx
+++ b/Excel/buff.状态效果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9DF678-4C4C-4BEB-843C-3C633BEBBE04}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E120AB-E75E-4E91-85B8-B64CD0452127}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,10 +377,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>攻击力提升1000%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>attr[1].tar</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -410,6 +406,10 @@
   </si>
   <si>
     <t>attr[2].valv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速提升500%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAFF09F-591C-41DC-A711-53F6351E712C}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1070,31 +1070,31 @@
         <v>24</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>35</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>77</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>28</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>38</v>
       </c>
       <c r="P1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>32</v>
@@ -1135,10 +1135,10 @@
         <v>26</v>
       </c>
       <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
         <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>25</v>
@@ -1188,7 +1188,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>36</v>
@@ -1203,7 +1203,7 @@
         <v>29</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>37</v>
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="3">
-        <v>3500</v>
+        <v>0.35</v>
       </c>
       <c r="L5" s="3">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>2500</v>
+        <v>25</v>
       </c>
       <c r="L6" s="3">
         <v>0</v>
@@ -1349,24 +1349,24 @@
         <v>70</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
         <v>63</v>
       </c>
       <c r="I7" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="3">
         <v>5</v>
       </c>
       <c r="K7" s="3">
-        <v>100000</v>
+        <v>5</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="3">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>5</v>
       </c>
       <c r="K9" s="3">
-        <v>5000</v>
+        <v>0.5</v>
       </c>
       <c r="L9" s="3">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>2500</v>
+        <v>0.25</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="3">
-        <v>5000</v>
+        <v>0.5</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>2500</v>
+        <v>0.25</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>

--- a/Excel/buff.状态效果.xlsx
+++ b/Excel/buff.状态效果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E120AB-E75E-4E91-85B8-B64CD0452127}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4152E6B3-88CE-47E4-8370-3F64EB398E28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,7 +409,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>攻速提升500%</t>
+    <t>攻速提升1000%，持续3.5秒</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
@@ -1366,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>

--- a/Excel/buff.状态效果.xlsx
+++ b/Excel/buff.状态效果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4152E6B3-88CE-47E4-8370-3F64EB398E28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1697DDE-43D6-411B-B2C8-5DE7728FD4BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>sheet名</t>
   </si>
@@ -409,7 +409,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>攻速提升1000%，持续3.5秒</t>
+    <t>狂暴减伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴伤害降低</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻速提升2000%，持续5秒</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1017,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BAFF09F-591C-41DC-A711-53F6351E712C}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1349,11 +1357,11 @@
         <v>70</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
@@ -1366,7 +1374,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L7" s="3">
         <v>0</v>
@@ -1584,6 +1592,47 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
     </row>
+    <row r="13" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>206</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="3">
+        <v>6</v>
+      </c>
+      <c r="J13" s="3">
+        <v>5</v>
+      </c>
+      <c r="K13" s="3">
+        <v>-0.7</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
